--- a/results/[16_expiring_support_res]_#_inv_cost.xlsx
+++ b/results/[16_expiring_support_res]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2537.924377324076</v>
+        <v>7260.855929159378</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6471.97056943178</v>
+        <v>202482.3775137067</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3400.28879931797</v>
+        <v>56671.47998863283</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>14519.8562640768</v>
+        <v>113197.4679992575</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>406900.475060112</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>74167.63997874</v>
       </c>
       <c r="N2" t="n">
-        <v>2285.547669482618</v>
+        <v>49002.61442705191</v>
       </c>
       <c r="O2" t="n">
-        <v>3389.108771303387</v>
+        <v>48821.42540419883</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1902.452442151877</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4236.332298559407</v>
+        <v>21842.26700681437</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>18045.38521273763</v>
+        <v>119460.9857877964</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>27062.27296270341</v>
+        <v>146356.429396456</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>53298.34532628221</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>47975.70999908229</v>
       </c>
       <c r="N2" t="n">
-        <v>3883.384811374519</v>
+        <v>13499.63412324797</v>
       </c>
       <c r="O2" t="n">
-        <v>3276.565554798721</v>
+        <v>18923.19708340089</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3540.239342542912</v>
+        <v>27543.1755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>9372.087664937855</v>
+        <v>22113.21643273498</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>38771.43301033976</v>
+        <v>114655.4402706629</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>57331.67885944174</v>
+        <v>153866.0861464091</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>44638.22942194272</v>
       </c>
       <c r="N2" t="n">
-        <v>10086.86941599635</v>
+        <v>39676.88529639924</v>
       </c>
       <c r="O2" t="n">
-        <v>7669.812218308174</v>
+        <v>31311.04369977792</v>
       </c>
     </row>
   </sheetData>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1142.580190039942</v>
       </c>
       <c r="O2" t="n">
-        <v>494.1844686420247</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1551.956292866974</v>
+        <v>29588.33508286276</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4347.543515635315</v>
       </c>
       <c r="O2" t="n">
-        <v>408.0947270140496</v>
+        <v>20429.76977394434</v>
       </c>
     </row>
   </sheetData>

--- a/results/[16_expiring_support_res]_#_inv_cost.xlsx
+++ b/results/[16_expiring_support_res]_#_inv_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1361.9250975309</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7234.276304389045</v>
+        <v>4876.512737957041</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>95628.44283880467</v>
+        <v>212279.6285102097</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>56671.47998863378</v>
+        <v>56671.47998863283</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>142637.4751862538</v>
+        <v>109653.27140292</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>151408.331051076</v>
+        <v>428573.6569267786</v>
       </c>
       <c r="M2" t="n">
-        <v>58157.89137374772</v>
+        <v>80341.74698896499</v>
       </c>
       <c r="N2" t="n">
-        <v>39920.99776562848</v>
+        <v>44942.73878197405</v>
       </c>
       <c r="O2" t="n">
-        <v>24984.91542484216</v>
+        <v>50827.92708717833</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>59737.77287289363</v>
+        <v>8893.010627692065</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>34788.11346181522</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>680424.9179136648</v>
+        <v>214922.2077203031</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>607444.7912615556</v>
+        <v>229183.4540128457</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1044324.778820487</v>
+        <v>100980.5016519909</v>
       </c>
       <c r="M2" t="n">
-        <v>404472.9759871381</v>
+        <v>92065.42697618291</v>
       </c>
       <c r="N2" t="n">
-        <v>168404.4027158963</v>
+        <v>49188.66652121952</v>
       </c>
       <c r="O2" t="n">
-        <v>157887.3794081653</v>
+        <v>39944.84862230343</v>
       </c>
     </row>
   </sheetData>

--- a/results/[16_expiring_support_res]_#_inv_cost.xlsx
+++ b/results/[16_expiring_support_res]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4876.512737957041</v>
+        <v>5457.008988199987</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>212279.6285102097</v>
+        <v>212716.0964344695</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>109653.27140292</v>
+        <v>109810.98647904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>428573.6569267786</v>
+        <v>428396.954927634</v>
       </c>
       <c r="M2" t="n">
-        <v>80341.74698896499</v>
+        <v>80191.32604175001</v>
       </c>
       <c r="N2" t="n">
-        <v>44942.73878197405</v>
+        <v>44753.37472369202</v>
       </c>
       <c r="O2" t="n">
-        <v>50827.92708717833</v>
+        <v>50658.98282837399</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8893.010627692065</v>
+        <v>8830.954041229934</v>
       </c>
       <c r="B2" t="n">
-        <v>34788.11346181522</v>
+        <v>40368.76755562462</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>214922.2077203031</v>
+        <v>288326.2489419255</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>229183.4540128457</v>
+        <v>264868.335261012</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>100980.5016519909</v>
+        <v>217212.4395345119</v>
       </c>
       <c r="M2" t="n">
-        <v>92065.42697618291</v>
+        <v>123469.0689506697</v>
       </c>
       <c r="N2" t="n">
-        <v>49188.66652121952</v>
+        <v>63706.06971442258</v>
       </c>
       <c r="O2" t="n">
-        <v>39944.84862230343</v>
+        <v>54067.35526560284</v>
       </c>
     </row>
   </sheetData>

--- a/results/[16_expiring_support_res]_#_inv_cost.xlsx
+++ b/results/[16_expiring_support_res]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7260.855929159378</v>
+        <v>6817.676493320005</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>202482.3775137067</v>
+        <v>202876.6317618639</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>113197.4679992575</v>
+        <v>113226.96948346</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>406900.475060112</v>
+        <v>407171.573684766</v>
       </c>
       <c r="M2" t="n">
-        <v>74167.63997874</v>
+        <v>74134.115776105</v>
       </c>
       <c r="N2" t="n">
-        <v>49002.61442705191</v>
+        <v>49582.36890570669</v>
       </c>
       <c r="O2" t="n">
-        <v>48821.42540419883</v>
+        <v>48727.30956737027</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>21842.26700681437</v>
+        <v>33170.24475158019</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>119460.9857877964</v>
+        <v>189865.7594528699</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>146356.429396456</v>
+        <v>196298.3198217027</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>53298.34532628221</v>
+        <v>154748.0785685412</v>
       </c>
       <c r="M2" t="n">
-        <v>47975.70999908229</v>
+        <v>79755.84585322202</v>
       </c>
       <c r="N2" t="n">
-        <v>13499.63412324797</v>
+        <v>23752.27722812035</v>
       </c>
       <c r="O2" t="n">
-        <v>18923.19708340089</v>
+        <v>35339.83062727444</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27543.1755456332</v>
+        <v>28619.61401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>22113.21643273498</v>
+        <v>23143.29485244409</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>114655.4402706629</v>
+        <v>111916.8406725409</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>153866.0861464091</v>
+        <v>150385.2728707001</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>44638.22942194272</v>
+        <v>34803.41203795493</v>
       </c>
       <c r="N2" t="n">
-        <v>39676.88529639924</v>
+        <v>44938.11408779013</v>
       </c>
       <c r="O2" t="n">
-        <v>31311.04369977792</v>
+        <v>26938.31306104351</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1142.580190039942</v>
+        <v>1014.766490779938</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>29588.33508286276</v>
+        <v>34409.11717595647</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4347.543515635315</v>
+        <v>5182.698656944208</v>
       </c>
       <c r="O2" t="n">
-        <v>20429.76977394434</v>
+        <v>22972.54525065906</v>
       </c>
     </row>
   </sheetData>

--- a/results/[16_expiring_support_res]_#_inv_cost.xlsx
+++ b/results/[16_expiring_support_res]_#_inv_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1361.9250975309</v>
+        <v>22766.09418075097</v>
       </c>
       <c r="B2" t="n">
-        <v>7234.276304389045</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378680.1067536479</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>95628.44283880467</v>
+        <v>2028068.080011294</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>57851.28911090885</v>
       </c>
       <c r="G2" t="n">
-        <v>56671.47998863378</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>19405.9546141152</v>
       </c>
       <c r="I2" t="n">
-        <v>142637.4751862538</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>151408.331051076</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>58157.89137374772</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>39920.99776562848</v>
+        <v>12747.72254752197</v>
       </c>
       <c r="O2" t="n">
-        <v>24984.91542484216</v>
+        <v>12641.78914127249</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>59737.77287289363</v>
+        <v>112629.9862294005</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1846412.840537021</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>680424.9179136648</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>76400.33709596351</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>63926.54988066779</v>
       </c>
       <c r="I2" t="n">
-        <v>607444.7912615556</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1044324.778820487</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>404472.9759871381</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>168404.4027158963</v>
+        <v>94095.9368774546</v>
       </c>
       <c r="O2" t="n">
-        <v>157887.3794081653</v>
+        <v>55904.75915466248</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[16_expiring_support_res]_#_inv_cost.xlsx
+++ b/results/[16_expiring_support_res]_#_inv_cost.xlsx
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>56671.47998863283</v>
+        <v>56671.47998863241</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>80191.32604175001</v>
       </c>
       <c r="N2" t="n">
-        <v>44753.37472369202</v>
+        <v>44753.37472369215</v>
       </c>
       <c r="O2" t="n">
         <v>50658.98282837399</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8830.954041229934</v>
+        <v>8830.954041229932</v>
       </c>
       <c r="B2" t="n">
         <v>40368.76755562462</v>
@@ -699,10 +699,10 @@
         <v>123469.0689506697</v>
       </c>
       <c r="N2" t="n">
-        <v>63706.06971442258</v>
+        <v>63706.06971442269</v>
       </c>
       <c r="O2" t="n">
-        <v>54067.35526560284</v>
+        <v>54067.3552656028</v>
       </c>
     </row>
   </sheetData>

--- a/results/[16_expiring_support_res]_#_inv_cost.xlsx
+++ b/results/[16_expiring_support_res]_#_inv_cost.xlsx
@@ -556,10 +556,10 @@
         <v>74134.115776105</v>
       </c>
       <c r="N2" t="n">
-        <v>49582.36890570669</v>
+        <v>49582.36890570667</v>
       </c>
       <c r="O2" t="n">
-        <v>48727.30956737027</v>
+        <v>48727.30956737025</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>33170.24475158019</v>
+        <v>33137.03352764463</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>196298.3198217027</v>
+        <v>198217.443655766</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>154748.0785685412</v>
+        <v>149440.6543051887</v>
       </c>
       <c r="M2" t="n">
-        <v>79755.84585322202</v>
+        <v>79805.82773995743</v>
       </c>
       <c r="N2" t="n">
-        <v>23752.27722812035</v>
+        <v>23752.27722812037</v>
       </c>
       <c r="O2" t="n">
-        <v>35339.83062727444</v>
+        <v>35460.08822987087</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28619.61401238371</v>
+        <v>29273.60317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>23143.29485244409</v>
+        <v>22330.72247668595</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>111916.8406725409</v>
+        <v>110739.3594843864</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>150385.2728707001</v>
+        <v>150386.9441391908</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>34803.41203795493</v>
+        <v>35556.98862372932</v>
       </c>
       <c r="N2" t="n">
-        <v>44938.11408779013</v>
+        <v>44813.41193308897</v>
       </c>
       <c r="O2" t="n">
-        <v>26938.31306104351</v>
+        <v>26775.55841092002</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1014.766490779938</v>
+        <v>1041.156112142704</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34409.11717595647</v>
+        <v>34256.25291363284</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5182.698656944208</v>
+        <v>5271.89502409355</v>
       </c>
       <c r="O2" t="n">
-        <v>22972.54525065906</v>
+        <v>22972.54525065989</v>
       </c>
     </row>
   </sheetData>
